--- a/docs/conduit_T-09_adatmodositas_KRF.xlsx
+++ b/docs/conduit_T-09_adatmodositas_KRF.xlsx
@@ -142,7 +142,229 @@
     <t>T-02 sikeresen lefutott</t>
   </si>
   <si>
-    <t>Username: a</t>
+    <t>T-03 sikeresen lefutott</t>
+  </si>
+  <si>
+    <t>T-07 sikeresen lefutott</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm, hogy megjelenik az Edit Article gomb?</t>
+  </si>
+  <si>
+    <t>Megjelenik az Edit Article gomb</t>
+  </si>
+  <si>
+    <t>Article Title:</t>
+  </si>
+  <si>
+    <t>tjk</t>
+  </si>
+  <si>
+    <t>What's this article about?:</t>
+  </si>
+  <si>
+    <t>tjk írás</t>
+  </si>
+  <si>
+    <t>Write your article (in markdown)</t>
+  </si>
+  <si>
+    <t>csodaszép</t>
+  </si>
+  <si>
+    <t>Enter tags:</t>
+  </si>
+  <si>
+    <t>T-09</t>
+  </si>
+  <si>
+    <t>Bejegyzés cimének szerkesztése</t>
+  </si>
+  <si>
+    <t>új cím</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm, hogy a jobb felső sarokban ha rákattintok a username-re, akkor megjelennek a korábbi bejegyzéseim?</t>
+  </si>
+  <si>
+    <t>Megjelennek a korábbi bejegyzéseim: http://localhost:1667/#/@a/</t>
+  </si>
+  <si>
+    <t>Az oldal közepén fent van a user fotója?</t>
+  </si>
+  <si>
+    <t>Az oldal közepén fent van a user fotója</t>
+  </si>
+  <si>
+    <t>Aktív a My Articles?</t>
+  </si>
+  <si>
+    <t>Aktív a My Articles</t>
+  </si>
+  <si>
+    <t>My Articles alatt szerepelnek felsorolva egymás alatt a korábbi bejegyzéseim?</t>
+  </si>
+  <si>
+    <t>My Articles alatt szerepelnek a korábbi bejegyzéseim</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm, hogy My Articles alatt csak a korábbi bejegyzéseim jelennek meg?</t>
+  </si>
+  <si>
+    <t>Csak a korábbi bejegyzéseim jelennek meg</t>
+  </si>
+  <si>
+    <t>Rákattintok a korábbi bejegyzéseim közül az elsőre, ahol látható Read more gomb, és kattintható.</t>
+  </si>
+  <si>
+    <t>Látható a bejegyzés címe</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm az oldal tartalmát: látható a bejegyzés címe?</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm az oldal tartalmát: látható a felhasználó neve?</t>
+  </si>
+  <si>
+    <t>Látható a felhasználó neve</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm az oldal tartalmát: látható a felhasználó profilképe?</t>
+  </si>
+  <si>
+    <t>Látható a felhasználó profilképe</t>
+  </si>
+  <si>
+    <t>Látható az Edit Article gomb</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm az oldal tartalmát: látható az Edit Article gomb?</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm az oldal tartalmát: látható a Delete Article gomb?</t>
+  </si>
+  <si>
+    <t>Látható a Delete Article gomb</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm az oldal tartalmát: látható a bejegyzés időpontja?</t>
+  </si>
+  <si>
+    <t>Nem a bejegyzés dátuma jelenik meg, hanem az aktuális nap.</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Látható a bejegyzés szövege</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm az oldal tartalmát: látható a bejegyzés szövege?</t>
+  </si>
+  <si>
+    <t>Látható a hozzáadott tag</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm az oldal tartalmát: látható a hozzáadott tag?</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm az oldal tartalmát: látható a Write a comment mező?</t>
+  </si>
+  <si>
+    <t>Látható a Write a comment mező</t>
+  </si>
+  <si>
+    <t>Látható a Post Comment gomb</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm az oldal tartalmát: látható a Post Comment gomb?</t>
+  </si>
+  <si>
+    <t>Edit Article gombra kattintok, betölt a bejegyzés szerkesztési oldala?</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm, hogy megjelenik-e az Article Title beviteli mező?</t>
+  </si>
+  <si>
+    <t>Megjelenik az Article Title beviteli mező</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm, hogy megjelenik-e a What's this article about beviteli mező?</t>
+  </si>
+  <si>
+    <t>Megjelenik a What's this article about beviteli mező</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm, hogy megjelenik-e a Write your article (in markdown) beviteli mező?</t>
+  </si>
+  <si>
+    <t>Megjelenik a Write your article (in markdown) beviteli mező</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm, hogy megjelenik-e az Enter tags beviteli mező?</t>
+  </si>
+  <si>
+    <t>Megjelenik az Enter tags beviteli mező</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm, hogy megjelenik-e a Publish Article gomb?</t>
+  </si>
+  <si>
+    <t>Megjelenik a Publish Article gomb</t>
+  </si>
+  <si>
+    <t>Ellenőrzöm, hogy módosítható-e az Article Title beviteli mező?</t>
+  </si>
+  <si>
+    <t>Módosítható az Article Title beviteli mező</t>
+  </si>
+  <si>
+    <t>Kitörölhető az Article Title beviteli mező</t>
+  </si>
+  <si>
+    <t>Kitörlöm az Article Title beviteli mezőt, lehetséges?</t>
+  </si>
+  <si>
+    <t>Beírható az Article Title beviteli mező új értéke?</t>
+  </si>
+  <si>
+    <t>Beírható (új cím)</t>
+  </si>
+  <si>
+    <t>Kattintok a Publish Article gombra, elmentődik a módosítás?</t>
+  </si>
+  <si>
+    <t>Elmentődik a módosítás</t>
+  </si>
+  <si>
+    <t>Megjelenik a bejegyzés oldala?</t>
+  </si>
+  <si>
+    <t>Betölt a bejegyzés oldala: http://localhost:1667/#/articles/tjk</t>
+  </si>
+  <si>
+    <t>Betölt a bejegyzés szerkesztési oldala: http://localhost:1667/#/editor/tjk</t>
+  </si>
+  <si>
+    <t>Megjelenik: http://localhost:1667/#/articles/tjk</t>
+  </si>
+  <si>
+    <t>URL nem változik</t>
+  </si>
+  <si>
+    <t>Látható a módosított Article Title beviteli mező?</t>
+  </si>
+  <si>
+    <t>Látható a módosított Article Title beviteli mező</t>
+  </si>
+  <si>
+    <t>A bejegyzés többi adata nem változott</t>
+  </si>
+  <si>
+    <t>A bejegyzés többi, korábban bevitt adata nem változott?</t>
+  </si>
+  <si>
+    <t>Username: user69</t>
   </si>
   <si>
     <r>
@@ -155,233 +377,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>a@a.hu</t>
+      <t>user69@gmail.hu</t>
     </r>
   </si>
   <si>
-    <t>Password: aaaAAA111</t>
-  </si>
-  <si>
-    <t>T-03 sikeresen lefutott</t>
-  </si>
-  <si>
-    <t>T-07 sikeresen lefutott</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm, hogy megjelenik az Edit Article gomb?</t>
-  </si>
-  <si>
-    <t>Megjelenik az Edit Article gomb</t>
-  </si>
-  <si>
-    <t>Article Title:</t>
-  </si>
-  <si>
-    <t>tjk</t>
-  </si>
-  <si>
-    <t>What's this article about?:</t>
-  </si>
-  <si>
-    <t>tjk írás</t>
-  </si>
-  <si>
-    <t>Write your article (in markdown)</t>
-  </si>
-  <si>
-    <t>csodaszép</t>
-  </si>
-  <si>
-    <t>Enter tags:</t>
-  </si>
-  <si>
-    <t>T-09</t>
-  </si>
-  <si>
-    <t>Bejegyzés cimének szerkesztése</t>
-  </si>
-  <si>
-    <t>új cím</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm, hogy a jobb felső sarokban ha rákattintok a username-re, akkor megjelennek a korábbi bejegyzéseim?</t>
-  </si>
-  <si>
-    <t>Megjelennek a korábbi bejegyzéseim: http://localhost:1667/#/@a/</t>
-  </si>
-  <si>
-    <t>Az oldal közepén fent van a user fotója?</t>
-  </si>
-  <si>
-    <t>Az oldal közepén fent van a user fotója</t>
-  </si>
-  <si>
-    <t>Aktív a My Articles?</t>
-  </si>
-  <si>
-    <t>Aktív a My Articles</t>
-  </si>
-  <si>
-    <t>My Articles alatt szerepelnek felsorolva egymás alatt a korábbi bejegyzéseim?</t>
-  </si>
-  <si>
-    <t>My Articles alatt szerepelnek a korábbi bejegyzéseim</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm, hogy My Articles alatt csak a korábbi bejegyzéseim jelennek meg?</t>
-  </si>
-  <si>
-    <t>Csak a korábbi bejegyzéseim jelennek meg</t>
-  </si>
-  <si>
-    <t>Rákattintok a korábbi bejegyzéseim közül az elsőre, ahol látható Read more gomb, és kattintható.</t>
-  </si>
-  <si>
-    <t>Látható a bejegyzés címe</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm az oldal tartalmát: látható a bejegyzés címe?</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm az oldal tartalmát: látható a felhasználó neve?</t>
-  </si>
-  <si>
-    <t>Látható a felhasználó neve</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm az oldal tartalmát: látható a felhasználó profilképe?</t>
-  </si>
-  <si>
-    <t>Látható a felhasználó profilképe</t>
-  </si>
-  <si>
-    <t>Látható az Edit Article gomb</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm az oldal tartalmát: látható az Edit Article gomb?</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm az oldal tartalmát: látható a Delete Article gomb?</t>
-  </si>
-  <si>
-    <t>Látható a Delete Article gomb</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm az oldal tartalmát: látható a bejegyzés időpontja?</t>
-  </si>
-  <si>
-    <t>Nem a bejegyzés dátuma jelenik meg, hanem az aktuális nap.</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Látható a bejegyzés szövege</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm az oldal tartalmát: látható a bejegyzés szövege?</t>
-  </si>
-  <si>
-    <t>Látható a hozzáadott tag</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm az oldal tartalmát: látható a hozzáadott tag?</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm az oldal tartalmát: látható a Write a comment mező?</t>
-  </si>
-  <si>
-    <t>Látható a Write a comment mező</t>
-  </si>
-  <si>
-    <t>Látható a Post Comment gomb</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm az oldal tartalmát: látható a Post Comment gomb?</t>
-  </si>
-  <si>
-    <t>Edit Article gombra kattintok, betölt a bejegyzés szerkesztési oldala?</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm, hogy megjelenik-e az Article Title beviteli mező?</t>
-  </si>
-  <si>
-    <t>Megjelenik az Article Title beviteli mező</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm, hogy megjelenik-e a What's this article about beviteli mező?</t>
-  </si>
-  <si>
-    <t>Megjelenik a What's this article about beviteli mező</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm, hogy megjelenik-e a Write your article (in markdown) beviteli mező?</t>
-  </si>
-  <si>
-    <t>Megjelenik a Write your article (in markdown) beviteli mező</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm, hogy megjelenik-e az Enter tags beviteli mező?</t>
-  </si>
-  <si>
-    <t>Megjelenik az Enter tags beviteli mező</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm, hogy megjelenik-e a Publish Article gomb?</t>
-  </si>
-  <si>
-    <t>Megjelenik a Publish Article gomb</t>
-  </si>
-  <si>
-    <t>Ellenőrzöm, hogy módosítható-e az Article Title beviteli mező?</t>
-  </si>
-  <si>
-    <t>Módosítható az Article Title beviteli mező</t>
-  </si>
-  <si>
-    <t>Kitörölhető az Article Title beviteli mező</t>
-  </si>
-  <si>
-    <t>Kitörlöm az Article Title beviteli mezőt, lehetséges?</t>
-  </si>
-  <si>
-    <t>Beírható az Article Title beviteli mező új értéke?</t>
-  </si>
-  <si>
-    <t>Beírható (új cím)</t>
-  </si>
-  <si>
-    <t>Kattintok a Publish Article gombra, elmentődik a módosítás?</t>
-  </si>
-  <si>
-    <t>Elmentődik a módosítás</t>
-  </si>
-  <si>
-    <t>Megjelenik a bejegyzés oldala?</t>
-  </si>
-  <si>
-    <t>Betölt a bejegyzés oldala: http://localhost:1667/#/articles/tjk</t>
-  </si>
-  <si>
-    <t>Betölt a bejegyzés szerkesztési oldala: http://localhost:1667/#/editor/tjk</t>
-  </si>
-  <si>
-    <t>Megjelenik: http://localhost:1667/#/articles/tjk</t>
-  </si>
-  <si>
-    <t>URL nem változik</t>
-  </si>
-  <si>
-    <t>Látható a módosított Article Title beviteli mező?</t>
-  </si>
-  <si>
-    <t>Látható a módosított Article Title beviteli mező</t>
-  </si>
-  <si>
-    <t>A bejegyzés többi adata nem változott</t>
-  </si>
-  <si>
-    <t>A bejegyzés többi, korábban bevitt adata nem változott?</t>
+    <t>Password: irsai10TC</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -662,19 +662,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3D3D3D"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -682,7 +669,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -730,12 +717,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -744,50 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -796,7 +780,7 @@
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Normál 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -926,50 +910,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1341,7 +1281,7 @@
   <dimension ref="A1:IW56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1359,59 +1299,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1427,27 +1367,27 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23">
+      <c r="E5" s="32"/>
+      <c r="F5" s="33">
         <v>44421</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1463,125 +1403,125 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="F7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="I7" s="25" t="s">
+      <c r="G7" s="30"/>
+      <c r="I7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="G8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="I10" s="25" t="s">
+      <c r="G10" s="30"/>
+      <c r="I10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="25"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>6</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>7</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="10"/>
@@ -1590,20 +1530,20 @@
       <c r="A15" s="9">
         <v>8</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="4"/>
       <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="G15" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="33"/>
+      <c r="G15" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1615,11 +1555,11 @@
       <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="G16" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="34"/>
+      <c r="G16" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1631,11 +1571,11 @@
       <c r="F17" s="9">
         <v>3</v>
       </c>
-      <c r="G17" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="34"/>
+      <c r="G17" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1647,12 +1587,12 @@
       <c r="F18" s="9">
         <v>4</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="34" t="s">
-        <v>42</v>
+      <c r="G18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J18" s="16"/>
     </row>
@@ -1665,12 +1605,12 @@
       <c r="F19" s="9">
         <v>5</v>
       </c>
-      <c r="G19" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="34" t="s">
-        <v>44</v>
+      <c r="G19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="J19" s="16"/>
     </row>
@@ -1683,12 +1623,12 @@
       <c r="F20" s="9">
         <v>6</v>
       </c>
-      <c r="G20" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="34" t="s">
-        <v>46</v>
+      <c r="G20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="J20" s="16"/>
     </row>
@@ -1701,12 +1641,12 @@
       <c r="F21" s="9">
         <v>7</v>
       </c>
-      <c r="G21" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="35" t="s">
-        <v>42</v>
+      <c r="G21" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="J21" s="16"/>
     </row>
@@ -1719,12 +1659,12 @@
       <c r="F22" s="9">
         <v>8</v>
       </c>
-      <c r="G22" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="35" t="s">
-        <v>50</v>
+      <c r="G22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="J22" s="16"/>
     </row>
@@ -1741,51 +1681,51 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="29" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="24" t="s">
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="30" t="s">
+      <c r="J25" s="25"/>
+      <c r="K25" s="26" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="30"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
@@ -1793,766 +1733,769 @@
       <c r="A27" s="12">
         <v>1</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="18"/>
+      <c r="B27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="20"/>
       <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>2</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="18"/>
+      <c r="B28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="20"/>
       <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>3</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="18"/>
+      <c r="B29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="20"/>
       <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>4</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="18"/>
+      <c r="B30" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="20"/>
       <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>5</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="18"/>
+      <c r="B31" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="20"/>
       <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>6</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="18"/>
+      <c r="B32" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="20"/>
       <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>7</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="18"/>
+      <c r="B33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="20"/>
       <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>8</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="18"/>
+      <c r="B34" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="20"/>
       <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>9</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="18"/>
+      <c r="B35" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="20"/>
       <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>10</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="18"/>
+      <c r="B36" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="20"/>
       <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>11</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="18"/>
+      <c r="B37" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="20"/>
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>12</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="18"/>
+      <c r="B38" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="20"/>
       <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>13</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J39" s="18"/>
+      <c r="B39" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" s="20"/>
       <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>14</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="18"/>
+      <c r="B40" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="20"/>
       <c r="K40" s="13"/>
     </row>
     <row r="41" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>15</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="18"/>
+      <c r="B41" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="20"/>
       <c r="K41" s="13"/>
     </row>
     <row r="42" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>16</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="18"/>
+      <c r="B42" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="20"/>
       <c r="K42" s="13"/>
     </row>
     <row r="43" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>17</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="18"/>
+      <c r="B43" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="20"/>
       <c r="K43" s="13"/>
     </row>
     <row r="44" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>18</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="18"/>
+      <c r="B44" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="20"/>
       <c r="K44" s="13"/>
     </row>
     <row r="45" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>19</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="18"/>
+      <c r="B45" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="20"/>
       <c r="K45" s="13"/>
     </row>
     <row r="46" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>20</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="18"/>
+      <c r="B46" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="20"/>
       <c r="K46" s="13"/>
     </row>
     <row r="47" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>21</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="18"/>
+      <c r="B47" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="20"/>
       <c r="K47" s="13"/>
     </row>
     <row r="48" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>22</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="18"/>
+      <c r="B48" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="20"/>
       <c r="K48" s="13"/>
     </row>
     <row r="49" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>23</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="18"/>
+      <c r="B49" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="20"/>
       <c r="K49" s="13"/>
     </row>
     <row r="50" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>24</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="18"/>
+      <c r="B50" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="20"/>
       <c r="K50" s="13"/>
     </row>
     <row r="51" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>25</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="18"/>
+      <c r="B51" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="20"/>
       <c r="K51" s="13"/>
     </row>
     <row r="52" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>26</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="18"/>
+      <c r="B52" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="20"/>
       <c r="K52" s="13"/>
     </row>
     <row r="53" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>27</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="18"/>
+      <c r="B53" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="20"/>
       <c r="K53" s="13"/>
     </row>
     <row r="54" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>28</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="18"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="20"/>
       <c r="K54" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>29</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="18"/>
+      <c r="B55" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="20"/>
       <c r="K55" s="13"/>
     </row>
     <row r="56" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>30</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="18"/>
+      <c r="B56" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="20"/>
       <c r="K56" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="166">
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:H26"/>
+    <mergeCell ref="I25:J26"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
@@ -2573,82 +2516,79 @@
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="F25:H26"/>
-    <mergeCell ref="I25:J26"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="I56:J56"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
     <cfRule type="expression" dxfId="11" priority="2">
